--- a/medicine/Enfance/Marie-Louise_Gay/Marie-Louise_Gay.xlsx
+++ b/medicine/Enfance/Marie-Louise_Gay/Marie-Louise_Gay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie-Louise Gay (née à Québec, 1952) est une écrivaine et une illustratrice québécoise.
-Elle a écrit et illustré de nombreux livres pour enfants[1].
-En octobre 2023, une bibliothèque publique de l'Alabama a ajouté par erreur le livre pour enfant Raconte-moi une histoire Stella[2], un livre pour enfant de l'autrice Marie-Louise Gay, sur une liste de titres potentiellement inappropriés parce que le nom de famille de l'autrice est Gay.
+Elle a écrit et illustré de nombreux livres pour enfants.
+En octobre 2023, une bibliothèque publique de l'Alabama a ajouté par erreur le livre pour enfant Raconte-moi une histoire Stella, un livre pour enfant de l'autrice Marie-Louise Gay, sur une liste de titres potentiellement inappropriés parce que le nom de famille de l'autrice est Gay.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">1984 - Prix de littérature de jeunesse du Conseil des Arts du Canada, Lizzy's Lion
 1984 - Prix de littérature de jeunesse du Conseil des Arts du Canada, Drôle d'école
@@ -528,7 +542,7 @@
 2000 - Finaliste au Prix du Gouverneur général, Sur mon île
 2002 - Finaliste au Prix du Gouverneur général, Stella, Fairy of the Forest
 2004 - Finaliste au Prix du Gouverneur général, Stella, Princess of the Sky
-2016 : Prix jeunesse des libraires du Québec[3] pour Un million de questions ! </t>
+2016 : Prix jeunesse des libraires du Québec pour Un million de questions ! </t>
         </is>
       </c>
     </row>
